--- a/pantauclient/media/temp_reports/Laporan_9C_2025-11-25.xlsx
+++ b/pantauclient/media/temp_reports/Laporan_9C_2025-11-25.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>19:47</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>19:47</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Hadir</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Hadir</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>19:47</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>19:47</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>19:47</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Hadir</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>19:47</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hadir: 9</t>
+          <t>Hadir: 6</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Alpha: 25</t>
+          <t>Alpha: 28</t>
         </is>
       </c>
     </row>
